--- a/Virtual Visitas (Responses).xlsx
+++ b/Virtual Visitas (Responses).xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkzr3\VirtualVisitas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22506" windowHeight="8754"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Timestamp</t>
   </si>
@@ -124,64 +132,71 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -371,26 +386,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="22" width="21.57"/>
+    <col min="1" max="22" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,9 +443,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
-        <v>43896.79063503472</v>
+        <v>43896.790635034718</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -436,7 +454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>43896.791247256944</v>
       </c>
@@ -447,9 +465,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <v>43896.79794025463</v>
+        <v>43896.797940254633</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -457,8 +475,11 @@
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>43896.801594375</v>
       </c>
@@ -469,9 +490,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
-        <v>43896.80201140046</v>
+        <v>43896.802011400461</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -480,7 +501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>43896.810073298606</v>
       </c>
@@ -491,9 +512,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
-        <v>43896.82154048611</v>
+        <v>43896.821540486111</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -501,10 +522,13 @@
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
-        <v>43896.83058003472</v>
+        <v>43896.830580034723</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
@@ -512,8 +536,11 @@
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>43897.005486215276</v>
       </c>
@@ -523,10 +550,13 @@
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
-        <v>43897.37583556713</v>
+        <v>43897.375835567131</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -560,6 +590,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Virtual Visitas (Responses).xlsx
+++ b/Virtual Visitas (Responses).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Timestamp</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -453,6 +456,9 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
@@ -464,6 +470,9 @@
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -476,7 +485,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -489,6 +498,9 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -500,6 +512,9 @@
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
@@ -511,6 +526,9 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -551,7 +569,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/Virtual Visitas (Responses).xlsx
+++ b/Virtual Visitas (Responses).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Timestamp</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Ailie Johnson</t>
   </si>
   <si>
-    <t>pkz6h@virginia.edu</t>
-  </si>
-  <si>
     <t>Paula Zhu</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>Neuroscience</t>
+  </si>
+  <si>
+    <t>paulakaitlynzoo@gmail.com</t>
+  </si>
+  <si>
+    <t>Art History</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +155,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -172,17 +181,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,7 +415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -457,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -471,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -485,7 +497,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -499,7 +511,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -513,7 +525,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -527,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -541,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -555,21 +567,21 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>43897.005486215276</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -583,31 +595,34 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Virtual Visitas (Responses).xlsx
+++ b/Virtual Visitas (Responses).xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22506" windowHeight="8754"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>Timestamp</t>
   </si>
@@ -132,17 +133,119 @@
     <t>paulakaitlynzoo@gmail.com</t>
   </si>
   <si>
-    <t>Art History</t>
+    <t>Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Jackie Baldwin</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Pop, R&amp;B, Classical, Rock</t>
+  </si>
+  <si>
+    <t>Tennis, Dancing</t>
+  </si>
+  <si>
+    <t>Music, Theater, Cooking/Baking, Dance, Art, Hiking, Yoga, Reading</t>
+  </si>
+  <si>
+    <t>noah2list@gmail.com</t>
+  </si>
+  <si>
+    <t>Noah List</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Pop, Rap, R&amp;B</t>
+  </si>
+  <si>
+    <t>Football, Baseball/Softball, Basketball</t>
+  </si>
+  <si>
+    <t>Coding, Other</t>
+  </si>
+  <si>
+    <t>mendez_james@hotmail.com</t>
+  </si>
+  <si>
+    <t>James Mendez</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Football, Basketball, Soccer</t>
+  </si>
+  <si>
+    <t>Music, Reading</t>
+  </si>
+  <si>
+    <t>apneal0725@gmail.com</t>
+  </si>
+  <si>
+    <t>Adam Neal</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Pop, Rap, Country</t>
+  </si>
+  <si>
+    <t>Football, Baseball/Softball, Basketball, Golf</t>
+  </si>
+  <si>
+    <t>Chess, Coding, Reading</t>
+  </si>
+  <si>
+    <t>chloesharlinwilson@gmail.com</t>
+  </si>
+  <si>
+    <t>Chloe Wilson</t>
+  </si>
+  <si>
+    <t>Pop, R&amp;B, Classical, No Preference</t>
+  </si>
+  <si>
+    <t>Football, Tennis, Cross Country</t>
+  </si>
+  <si>
+    <t>Cooking/Baking, Hiking, Writing, Shopping, Other</t>
+  </si>
+  <si>
+    <t>allachelaeticia@ymail.com</t>
+  </si>
+  <si>
+    <t>Laeticia Allache</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Pop, Rap, R&amp;B, Classical, Rock, Country, Jazz, No Preference</t>
+  </si>
+  <si>
+    <t>Soccer, Hockey, Cross Country, Track and Field</t>
+  </si>
+  <si>
+    <t>Music, Dance, Art, Yoga, Reading, Shopping, Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -150,18 +253,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,20 +275,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,11 +504,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -427,202 +520,473 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>43896.790635034718</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2">
+        <v>43896.790636574071</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>43896.791250000002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>43896.797939814816</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>43896.80159722222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>43896.80201388889</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>43896.810069444444</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>43896.821539351855</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>43896.830578703702</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>43897.005486111113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>43897.375833333332</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>43901.967476851853</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>43901.967557870368</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>43901.968171296299</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>43896.791247256944</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>43896.797940254633</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>43901.968287037038</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>43901.969513888886</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>43896.801594375</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <v>43896.802011400461</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
-        <v>43896.810073298606</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
-        <v>43896.821540486111</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
-        <v>43896.830580034723</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
-        <v>43897.005486215276</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <v>43897.375835567131</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>43901.983182870368</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Virtual Visitas (Responses).xlsx
+++ b/Virtual Visitas (Responses).xlsx
@@ -15,7 +15,6 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -223,9 +222,6 @@
     <t>Cooking/Baking, Hiking, Writing, Shopping, Other</t>
   </si>
   <si>
-    <t>allachelaeticia@ymail.com</t>
-  </si>
-  <si>
     <t>Laeticia Allache</t>
   </si>
   <si>
@@ -239,13 +235,16 @@
   </si>
   <si>
     <t>Music, Dance, Art, Yoga, Reading, Shopping, Other</t>
+  </si>
+  <si>
+    <t>allachelaeticia@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -256,6 +255,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,10 +280,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,8 +292,12 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -954,39 +964,42 @@
       <c r="A17" s="2">
         <v>43901.983182870368</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Virtual Visitas (Responses).xlsx
+++ b/Virtual Visitas (Responses).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>Timestamp</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>allachelaeticia@gmail.com</t>
+  </si>
+  <si>
+    <t>Kpop</t>
+  </si>
+  <si>
+    <t>Rock, Metal</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -575,7 +581,9 @@
       <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -596,7 +604,9 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -617,7 +627,9 @@
       <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -638,7 +650,9 @@
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -659,7 +673,9 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -680,7 +696,9 @@
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -701,7 +719,9 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -722,7 +742,9 @@
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -743,7 +765,9 @@
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
